--- a/Outlook_data/Meeting_data_of_July_month.xlsx
+++ b/Outlook_data/Meeting_data_of_July_month.xlsx
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Retrospective Meeting</t>
+          <t>Retrospective and iteration planning</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1627,29 +1627,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Iteration (test) planning</t>
+          <t>Daily Standup meeting - G5 testing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Boros Sandor MTANA</t>
+          <t>Selvavel Priya MTTS</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Daily Standup meeting - G5 testing</t>
+          <t>Daily stand-up Orion test automation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Selvavel Priya MTTS</t>
+          <t>Boros Sandor MTANA</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1689,25 +1689,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Daily stand-up Orion test automation</t>
+          <t>Daily Standup meeting - G5 testing</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Boros Sandor MTANA</t>
+          <t>Selvavel Priya MTTS</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Daily Standup meeting - G5 testing</t>
+          <t>Daily stand-up Orion test automation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Selvavel Priya MTTS</t>
+          <t>Boros Sandor MTANA</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Daily stand-up Orion test automation</t>
+          <t>G5 Testing - Updates</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Boros Sandor MTANA</t>
+          <t>Vembiah Haran MTTS</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1764,16 +1764,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>G5 Testing - Updates</t>
+          <t>You are registered for the training session: PLM251 - Risk Management</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vembiah Haran MTTS</t>
+          <t>Bailey William MTI-CF</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -1795,16 +1795,16 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -1813,29 +1813,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>You are registered for the training session: PLM251 - Risk Management</t>
+          <t>Daily Standup meeting - G5 testing</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bailey William MTI-CF</t>
+          <t>Selvavel Priya MTTS</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Daily Standup meeting - G5 testing</t>
+          <t>Daily stand-up Orion test automation</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Selvavel Priya MTTS</t>
+          <t>Boros Sandor MTANA</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Daily stand-up Orion test automation</t>
+          <t>G5 updates</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Boros Sandor MTANA</t>
+          <t>Selvavel Priya MTTS</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -1888,16 +1888,16 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>G5 updates</t>
+          <t>Daily Standup meeting - G5 testing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1915,20 +1915,20 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Daily Standup meeting - G5 testing</t>
+          <t>Daily stand-up Orion test automation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Selvavel Priya MTTS</t>
+          <t>Boros Sandor MTANA</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -1968,25 +1968,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Daily stand-up Orion test automation</t>
+          <t>Daily Standup meeting - G5 testing</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Boros Sandor MTANA</t>
+          <t>Selvavel Priya MTTS</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Daily Standup meeting - G5 testing</t>
+          <t>Test automation exchange ED-PAM / LabX / GPSS / iC3ng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Selvavel Priya MTTS</t>
+          <t>Rickenbacher Benno MTANA</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -2012,16 +2012,16 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -2376,17 +2376,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Iteration (test) planning</t>
+          <t>Iteration Retrospective Meeting</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Iteration Retrospective Meeting</t>
+          <t xml:space="preserve">Monthly Lab Team Meeting </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2396,51 +2396,51 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monthly Lab Team Meeting </t>
+          <t xml:space="preserve">Peer Review - Python implementation of Common functionality </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peer Review - Python implementation of Common functionality </t>
+          <t>Retrospective and iteration planning</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Retrospective Meeting</t>
+          <t xml:space="preserve">SWDC IN Townhall Meeting-Q3 </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">SWDC IN Townhall Meeting-Q3 </t>
+          <t>Test Process Overview - Follow-up 2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Test Process Overview - Follow-up 2</t>
+          <t>Test automation exchange ED-PAM / LabX / GPSS / iC3ng</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2613,7 +2613,7 @@
         <v>44397</v>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2653,7 +2653,7 @@
         <v>44404</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
